--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Maria_Pluta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Students\Maria_Pluta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA46F65-1144-4DE1-9332-962A0904F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221D25E-35DC-4D88-BE28-E6446FB17ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="4836" windowWidth="23256" windowHeight="12708" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1464,6 +1464,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -2038,7 +2040,7 @@
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2544,25 +2546,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.86328125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="17.25">
       <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
@@ -2582,7 +2584,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.45" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="39.6">
+    <row r="6" spans="2:9" ht="38.25">
       <c r="B6" s="55" t="s">
         <v>87</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="51.4" thickBot="1">
       <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
@@ -2767,7 +2769,7 @@
       <c r="C13" s="53"/>
       <c r="E13" s="53"/>
     </row>
-    <row r="16" spans="2:9" ht="13.8" thickBot="1">
+    <row r="16" spans="2:9" ht="13.15" thickBot="1">
       <c r="B16" s="79" t="s">
         <v>39</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+    <row r="21" spans="2:3" ht="13.15" thickBot="1">
       <c r="B21" s="52" t="s">
         <v>47</v>
       </c>
@@ -2829,21 +2831,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.53125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3180,7 +3182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+    <row r="26" spans="2:4" ht="13.15" thickBot="1">
       <c r="B26" s="52" t="s">
         <v>66</v>
       </c>
@@ -3206,29 +3208,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.1328125" customWidth="1"/>
+    <col min="4" max="5" width="12.86328125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="10" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.53125" customWidth="1"/>
+    <col min="9" max="10" width="15.86328125" customWidth="1"/>
+    <col min="14" max="14" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" customWidth="1"/>
     <col min="18" max="23" width="6.6640625" customWidth="1"/>
     <col min="24" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="37" width="9.5546875" customWidth="1"/>
+    <col min="31" max="37" width="9.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="17.399999999999999">
+    <row r="2" spans="2:37" ht="17.25">
       <c r="B2" s="8" t="s">
         <v>85</v>
       </c>
@@ -3268,7 +3270,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+    <row r="5" spans="2:37" ht="31.25" customHeight="1" thickBot="1">
       <c r="B5" s="54" t="s">
         <v>14</v>
       </c>
@@ -3941,14 +3943,14 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="17.399999999999999">
+    <row r="17" spans="2:7" ht="17.25">
       <c r="B17" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" ht="13.15">
       <c r="B19" s="54" t="s">
         <v>14</v>
       </c>
@@ -3968,7 +3970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39.6">
+    <row r="20" spans="2:7" ht="38.25">
       <c r="B20" s="55" t="s">
         <v>76</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+    <row r="21" spans="2:7" ht="52.5" thickBot="1">
       <c r="B21" s="44" t="s">
         <v>116</v>
       </c>
@@ -4130,7 +4132,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
+    <row r="29" spans="2:7" ht="13.15" thickBot="1">
       <c r="B29" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
@@ -4169,6 +4171,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -4345,12 +4353,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4361,6 +4363,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40A0E830-542D-468D-A5E9-7E4D18F716B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4379,19 +4394,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>

--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Students\Maria_Pluta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221D25E-35DC-4D88-BE28-E6446FB17ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842C1DA0-D635-447A-BFC9-497200318D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1132,9 +1132,6 @@
   </si>
   <si>
     <t>\I: Nazwa procesu</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
   </si>
   <si>
     <t>Demand Type Commodity at Output</t>
@@ -2546,8 +2543,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2742,7 +2739,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
@@ -2760,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
     </row>
@@ -2831,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3016,7 +3013,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="L10" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M10" s="82"/>
       <c r="N10" s="82"/>
@@ -3066,9 +3063,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
@@ -3089,9 +3084,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
-        <v>117</v>
-      </c>
+      <c r="H13" s="48"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
@@ -3146,7 +3139,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -3243,7 +3236,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="N2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -3284,13 +3277,13 @@
         <v>26</v>
       </c>
       <c r="F5" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="H5" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="71"/>
@@ -3304,67 +3297,67 @@
         <v>25</v>
       </c>
       <c r="Q5" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="S5" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="T5" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="T5" s="73" t="s">
+      <c r="U5" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="U5" s="73" t="s">
+      <c r="V5" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="V5" s="73" t="s">
+      <c r="W5" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="X5" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="Y5" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="Y5" s="73" t="s">
+      <c r="Z5" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="Z5" s="73" t="s">
+      <c r="AA5" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AB5" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AC5" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="AC5" s="73" t="s">
+      <c r="AD5" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="AD5" s="74" t="s">
-        <v>147</v>
-      </c>
       <c r="AE5" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF5" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AF5" s="73" t="s">
+      <c r="AG5" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="AG5" s="73" t="s">
+      <c r="AH5" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="AH5" s="73" t="s">
+      <c r="AI5" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="AI5" s="73" t="s">
+      <c r="AJ5" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="AJ5" s="73" t="s">
+      <c r="AK5" s="74" t="s">
         <v>154</v>
-      </c>
-      <c r="AK5" s="74" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="47.25" customHeight="1">
@@ -3381,17 +3374,17 @@
         <v>75</v>
       </c>
       <c r="F6" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="H6" s="55" t="s">
         <v>123</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>124</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K6" s="99"/>
       <c r="L6" s="100"/>
@@ -3414,7 +3407,7 @@
       <c r="V6" s="83"/>
       <c r="W6" s="84"/>
       <c r="X6" s="83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="83"/>
       <c r="Z6" s="83"/>
@@ -3423,7 +3416,7 @@
       <c r="AC6" s="83"/>
       <c r="AD6" s="84"/>
       <c r="AE6" s="83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF6" s="83"/>
       <c r="AG6" s="83"/>
@@ -3446,13 +3439,13 @@
         <v>115</v>
       </c>
       <c r="F7" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="H7" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="101"/>
@@ -3477,7 +3470,7 @@
       <c r="V7" s="86"/>
       <c r="W7" s="87"/>
       <c r="X7" s="85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y7" s="86"/>
       <c r="Z7" s="86"/>
@@ -3486,7 +3479,7 @@
       <c r="AC7" s="86"/>
       <c r="AD7" s="87"/>
       <c r="AE7" s="85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF7" s="86"/>
       <c r="AG7" s="86"/>
@@ -3517,7 +3510,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="J8" s="88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="90"/>
@@ -3945,7 +3938,7 @@
     </row>
     <row r="17" spans="2:7" ht="17.25">
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3984,10 +3977,10 @@
         <v>75</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="52.5" thickBot="1">
@@ -4004,10 +3997,10 @@
         <v>115</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -4028,7 +4021,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -4038,7 +4031,7 @@
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
       <c r="F23" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="60"/>
     </row>
@@ -4048,7 +4041,7 @@
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
       <c r="F24" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="60"/>
     </row>
@@ -4171,9 +4164,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4354,23 +4350,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4395,9 +4383,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\summer\MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{48132F81-F191-4F1E-8083-16E473A2E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB77C5DF-F06F-4F30-A0A0-6C111DEC817B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9DFE8-D15F-4D55-8201-1BD58F5F62C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -2133,7 +2133,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -2550,21 +2556,21 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2590,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.45" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="39.6">
+    <row r="6" spans="2:9" ht="38.25">
       <c r="B6" s="55" t="s">
         <v>10</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="51.75" thickBot="1">
       <c r="B7" s="44" t="s">
         <v>17</v>
       </c>
@@ -2769,7 +2775,7 @@
       <c r="C13" s="53"/>
       <c r="E13" s="53"/>
     </row>
-    <row r="16" spans="2:9" ht="13.8" thickBot="1">
+    <row r="16" spans="2:9" ht="13.5" thickBot="1">
       <c r="B16" s="79" t="s">
         <v>36</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+    <row r="21" spans="2:3" ht="13.5" thickBot="1">
       <c r="B21" s="52" t="s">
         <v>44</v>
       </c>
@@ -2835,17 +2841,17 @@
       <selection activeCell="L10" sqref="L10:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3182,7 +3188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+    <row r="26" spans="2:4" ht="13.5" thickBot="1">
       <c r="B26" s="52" t="s">
         <v>106</v>
       </c>
@@ -3208,29 +3214,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="10" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="23" width="6.6640625" customWidth="1"/>
-    <col min="24" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="37" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="10" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="23" width="6.7109375" customWidth="1"/>
+    <col min="24" max="30" width="9.7109375" customWidth="1"/>
+    <col min="31" max="37" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="17.399999999999999">
+    <row r="2" spans="2:37" ht="18">
       <c r="B2" s="8" t="s">
         <v>108</v>
       </c>
@@ -3270,7 +3276,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+    <row r="5" spans="2:37" ht="31.15" customHeight="1" thickBot="1">
       <c r="B5" s="54" t="s">
         <v>50</v>
       </c>
@@ -3665,7 +3671,10 @@
       <c r="E10" s="15">
         <v>28</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <f>3.4 * 37 /3</f>
+        <v>41.93333333333333</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="J10" s="91"/>
@@ -3741,7 +3750,10 @@
       <c r="E11" s="22">
         <v>30</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <f xml:space="preserve"> 13 * 37 /3</f>
+        <v>160.33333333333334</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="J11" s="91"/>
@@ -3941,7 +3953,7 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="17.399999999999999">
+    <row r="17" spans="2:7" ht="18">
       <c r="B17" s="8" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39.6">
+    <row r="20" spans="2:7" ht="38.25">
       <c r="B20" s="55" t="s">
         <v>138</v>
       </c>
@@ -3988,7 +4000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+    <row r="21" spans="2:7" ht="51.75" thickBot="1">
       <c r="B21" s="44" t="s">
         <v>143</v>
       </c>
@@ -4130,7 +4142,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
+    <row r="29" spans="2:7" ht="13.5" thickBot="1">
       <c r="B29" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
@@ -4169,6 +4181,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4363,27 +4395,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4400,23 +4431,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\summer\MID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C9DFE8-D15F-4D55-8201-1BD58F5F62C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC73DB3-2236-46C6-B2CF-191491630067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1363,6 +1363,18 @@
   </si>
   <si>
     <t>Annual Extraction Lower Bound [PJ/a]</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Hydro Energy</t>
+  </si>
+  <si>
+    <t>MIN_HYDRO</t>
+  </si>
+  <si>
+    <t>HYDRO</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1873,25 +1885,16 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2039,6 +2042,33 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2550,27 +2580,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="1:9" ht="17.399999999999999">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2612,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="1:9">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2590,7 +2620,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.45" customHeight="1">
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2602,85 +2632,85 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="38.25">
-      <c r="B6" s="55" t="s">
+    <row r="6" spans="1:9" ht="39.6">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="51.75" thickBot="1">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:9" ht="53.4" thickBot="1">
+      <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
@@ -2698,7 +2728,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -2716,7 +2746,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
@@ -2734,7 +2764,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
@@ -2752,72 +2782,86 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="16" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B16" s="79" t="s">
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B16" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="72"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B21" s="52" t="s">
+    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B21" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="46" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2837,21 +2881,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:P11"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2868,96 +2912,96 @@
         <v>47</v>
       </c>
       <c r="C4" s="28"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="36" customHeight="1">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1">
       <c r="B8" s="30" t="s">
@@ -3021,13 +3065,13 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
@@ -3049,11 +3093,11 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="30" t="s">
@@ -3078,124 +3122,145 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B13" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
+      <c r="G13" s="106"/>
+      <c r="H13" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B14" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.5" thickBot="1">
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+      <c r="B26" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3214,29 +3279,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="10" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
-    <col min="18" max="23" width="6.7109375" customWidth="1"/>
-    <col min="24" max="30" width="9.7109375" customWidth="1"/>
-    <col min="31" max="37" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="10" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="23" width="6.6640625" customWidth="1"/>
+    <col min="24" max="30" width="9.6640625" customWidth="1"/>
+    <col min="31" max="37" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="18">
+    <row r="2" spans="2:37" ht="17.399999999999999">
       <c r="B2" s="8" t="s">
         <v>108</v>
       </c>
@@ -3276,230 +3341,230 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.15" customHeight="1" thickBot="1">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+      <c r="B5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="47" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="71"/>
-      <c r="N5" s="54" t="s">
+      <c r="J5" s="64"/>
+      <c r="N5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="73" t="s">
+      <c r="T5" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="73" t="s">
+      <c r="U5" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="73" t="s">
+      <c r="V5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="W5" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="X5" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="73" t="s">
+      <c r="Y5" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" s="73" t="s">
+      <c r="Z5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AA5" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AB5" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="AC5" s="73" t="s">
+      <c r="AC5" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="74" t="s">
+      <c r="AD5" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="AE5" s="73" t="s">
+      <c r="AE5" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="AF5" s="73" t="s">
+      <c r="AF5" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="AG5" s="73" t="s">
+      <c r="AG5" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" s="73" t="s">
+      <c r="AH5" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AI5" s="73" t="s">
+      <c r="AI5" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="AJ5" s="73" t="s">
+      <c r="AJ5" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AK5" s="74" t="s">
+      <c r="AK5" s="67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="47.25" customHeight="1">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="48" t="s">
         <v>159</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
-      <c r="N6" s="55" t="s">
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
+      <c r="N6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="97" t="s">
+      <c r="Q6" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="83" t="s">
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="83" t="s">
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="84"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="77"/>
     </row>
     <row r="7" spans="2:37" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>148</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="N7" s="44" t="s">
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+      <c r="N7" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="85" t="s">
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="85" t="s">
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="87"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="80"/>
     </row>
     <row r="8" spans="2:37" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -3520,11 +3585,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
       <c r="N8" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
@@ -3537,47 +3602,47 @@
         <f t="shared" si="0"/>
         <v>HC</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="56">
         <v>15</v>
       </c>
-      <c r="R8" s="62">
+      <c r="R8" s="55">
         <f>Q8*1.02</f>
         <v>15.3</v>
       </c>
-      <c r="S8" s="62">
+      <c r="S8" s="55">
         <f t="shared" ref="S8:W8" si="1">R8*1.02</f>
         <v>15.606000000000002</v>
       </c>
-      <c r="T8" s="62">
+      <c r="T8" s="55">
         <f t="shared" si="1"/>
         <v>15.918120000000002</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U8" s="55">
         <f t="shared" si="1"/>
         <v>16.236482400000003</v>
       </c>
-      <c r="V8" s="62">
+      <c r="V8" s="55">
         <f t="shared" si="1"/>
         <v>16.561212048000005</v>
       </c>
-      <c r="W8" s="68">
+      <c r="W8" s="61">
         <f t="shared" si="1"/>
         <v>16.892436288960006</v>
       </c>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
     </row>
     <row r="9" spans="2:37" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="str">
@@ -3598,9 +3663,9 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
       <c r="N9" s="19" t="str">
         <f t="shared" ref="N9:N13" si="2">B9</f>
         <v>MIN_BC</v>
@@ -3613,7 +3678,7 @@
         <f t="shared" ref="P9:P13" si="4">D9</f>
         <v>BC</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="57">
         <v>7</v>
       </c>
       <c r="R9" s="22">
@@ -3636,7 +3701,7 @@
         <f t="shared" si="5"/>
         <v>7.3570703506999999</v>
       </c>
-      <c r="W9" s="69">
+      <c r="W9" s="62">
         <f t="shared" si="5"/>
         <v>7.4306410542070003</v>
       </c>
@@ -3647,7 +3712,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="64"/>
+      <c r="AE9" s="57"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -3671,15 +3736,12 @@
       <c r="E10" s="15">
         <v>28</v>
       </c>
-      <c r="F10" s="14">
-        <f>3.4 * 37 /3</f>
-        <v>41.93333333333333</v>
-      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
       <c r="N10" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_NAT-GAS</v>
@@ -3692,7 +3754,7 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="Q10" s="58">
         <v>28</v>
       </c>
       <c r="R10" s="15">
@@ -3715,7 +3777,7 @@
         <f t="shared" si="6"/>
         <v>32.459674080400006</v>
       </c>
-      <c r="W10" s="70">
+      <c r="W10" s="63">
         <f t="shared" si="6"/>
         <v>33.433464302812006</v>
       </c>
@@ -3726,7 +3788,7 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="65"/>
+      <c r="AE10" s="58"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
@@ -3750,15 +3812,12 @@
       <c r="E11" s="22">
         <v>30</v>
       </c>
-      <c r="F11" s="21">
-        <f xml:space="preserve"> 13 * 37 /3</f>
-        <v>160.33333333333334</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
       <c r="N11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>IMP_NAT-GAS</v>
@@ -3771,7 +3830,7 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="57">
         <v>30</v>
       </c>
       <c r="R11" s="22">
@@ -3794,7 +3853,7 @@
         <f t="shared" si="7"/>
         <v>28.529701496999998</v>
       </c>
-      <c r="W11" s="69">
+      <c r="W11" s="62">
         <f t="shared" si="7"/>
         <v>28.244404482029999</v>
       </c>
@@ -3805,7 +3864,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="64"/>
+      <c r="AE11" s="57"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="22"/>
@@ -3826,15 +3885,15 @@
         <f>SEC_Comm!C11</f>
         <v>WIND-ON</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="51">
         <v>1E-3</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
       <c r="N12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_WIND-ON</v>
@@ -3847,25 +3906,25 @@
         <f t="shared" si="4"/>
         <v>WIND-ON</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="Q12" s="59">
         <v>1E-3</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="S12" s="58">
+      <c r="S12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="T12" s="58">
+      <c r="T12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="U12" s="58">
+      <c r="U12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="W12" s="77">
+      <c r="W12" s="70">
         <v>1E-3</v>
       </c>
       <c r="X12" s="14"/>
@@ -3875,7 +3934,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="75"/>
+      <c r="AE12" s="68"/>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
@@ -3884,27 +3943,27 @@
       <c r="AK12" s="14"/>
     </row>
     <row r="13" spans="2:37" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="110" t="str">
         <f>SEC_Processes!D13</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="110" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="111" t="str">
         <f>SEC_Comm!C12</f>
         <v>SOLAR</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="112">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="N13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MIN_SOLAR</v>
@@ -3917,25 +3976,25 @@
         <f t="shared" si="4"/>
         <v>SOLAR</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="60">
         <v>1E-3</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="S13" s="59">
+      <c r="S13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="U13" s="59">
+      <c r="U13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="V13" s="59">
+      <c r="V13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="W13" s="78">
+      <c r="W13" s="71">
         <v>1E-3</v>
       </c>
       <c r="X13" s="25"/>
@@ -3945,7 +4004,7 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="76"/>
+      <c r="AE13" s="69"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -3953,7 +4012,27 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="18">
+    <row r="14" spans="2:37" ht="13.8" thickBot="1">
+      <c r="B14" s="109" t="str">
+        <f>SEC_Processes!D14</f>
+        <v>MIN_HYDRO</v>
+      </c>
+      <c r="C14" s="109" t="str">
+        <f>SEC_Processes!E14</f>
+        <v>Hydro</v>
+      </c>
+      <c r="D14" s="109" t="str">
+        <f>SEC_Comm!C13</f>
+        <v>HYDRO</v>
+      </c>
+      <c r="E14" s="109">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+    </row>
+    <row r="17" spans="2:7" ht="17.399999999999999">
       <c r="B17" s="8" t="s">
         <v>150</v>
       </c>
@@ -3961,62 +4040,62 @@
       <c r="D17" s="8"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="38.25">
-      <c r="B20" s="55" t="s">
+    <row r="20" spans="2:7" ht="39.6">
+      <c r="B20" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="51.75" thickBot="1">
-      <c r="B21" s="44" t="s">
+    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+      <c r="B21" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="40" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4043,24 +4122,24 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="19" t="str">
@@ -4135,14 +4214,14 @@
         <f t="shared" si="8"/>
         <v>WIND-ON</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="51">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.5" thickBot="1">
+    <row r="29" spans="2:7" ht="13.8" thickBot="1">
       <c r="B29" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
@@ -4155,7 +4234,7 @@
         <f t="shared" si="8"/>
         <v>SOLAR</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="52">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
